--- a/模型訓練過程/discard模型訓練過程.xlsx
+++ b/模型訓練過程/discard模型訓練過程.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C32E9-FD71-49EC-B40B-7277D9D11BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD6EDD-D7FB-4A7F-B9CD-3778A41F7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="885" windowWidth="21660" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>層數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>模型類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34*29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +605,7 @@
         <v>45677.486111111109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -608,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.40972222222222221</v>
       </c>
@@ -619,7 +627,7 @@
         <v>0.32090000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.41249999999999998</v>
       </c>
@@ -630,7 +638,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.4861111111111111</v>
       </c>
@@ -641,7 +649,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.59722222222222221</v>
       </c>
@@ -652,7 +660,7 @@
         <v>0.39169999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.74305555555555558</v>
       </c>
@@ -663,7 +671,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.78472222222222221</v>
       </c>
@@ -674,7 +682,7 @@
         <v>0.41160000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.88888888888888884</v>
       </c>
@@ -685,7 +693,7 @@
         <v>0.4163</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1.6041666666666667</v>
       </c>
@@ -694,6 +702,52 @@
       </c>
       <c r="C26" s="4">
         <v>0.433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45716.986111111109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/模型訓練過程/discard模型訓練過程.xlsx
+++ b/模型訓練過程/discard模型訓練過程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD6EDD-D7FB-4A7F-B9CD-3778A41F7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E583A5F-FC6C-4D4A-B0E9-643E034B825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22728" yWindow="312" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>層數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>34*29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定時儲存訓練時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,14 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -750,6 +755,62 @@
         <v>12</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模型訓練過程/discard模型訓練過程.xlsx
+++ b/模型訓練過程/discard模型訓練過程.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E583A5F-FC6C-4D4A-B0E9-643E034B825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A573EAA-BF61-4EC8-9F59-A97007396524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22728" yWindow="312" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
   <si>
     <t>層數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +82,42 @@
   </si>
   <si>
     <t>定時儲存訓練時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN_400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN_400_Bat_Res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN_512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN_512_Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN_512_Bat_Res</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -429,6 +468,7 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -774,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0.125</v>
       </c>
@@ -782,7 +822,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0.25</v>
       </c>
@@ -790,7 +830,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0.375</v>
       </c>
@@ -798,7 +838,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0.5</v>
       </c>
@@ -806,9 +846,657 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0.625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>300</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>1E-4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45926.586111111108</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>400</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57">
+        <v>1E-4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>45926.585416666669</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>400</v>
+      </c>
+      <c r="D72">
+        <v>32</v>
+      </c>
+      <c r="E72">
+        <v>1E-4</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>45926.585416666669</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>512</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>1E-4</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="3">
+        <v>45926.585416666669</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>512</v>
+      </c>
+      <c r="D102">
+        <v>32</v>
+      </c>
+      <c r="E102">
+        <v>1E-4</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>45926.585416666669</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>512</v>
+      </c>
+      <c r="D117">
+        <v>32</v>
+      </c>
+      <c r="E117">
+        <v>1E-4</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="3">
+        <v>45926.585416666669</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
